--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_7.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_7.xlsx
@@ -508,295 +508,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9502888460629112</v>
+        <v>0.8450502467781982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7520447150089038</v>
+        <v>0.6027278405309788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8116090211678076</v>
+        <v>0.7175708266572181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8649509409646996</v>
+        <v>0.7740139275950451</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2069240053934925</v>
+        <v>0.367260763905371</v>
       </c>
       <c r="G2" t="n">
-        <v>1.658078132464566</v>
+        <v>2.656560759639436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.673863607746172</v>
+        <v>1.010232776862744</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6851042238717395</v>
+        <v>0.4477880949420533</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6885345163856497</v>
+        <v>1.083213805163916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4548890033771893</v>
+        <v>0.6060204319207159</v>
       </c>
       <c r="L2" t="n">
-        <v>4.181513851973683</v>
+        <v>0.7890045913575465</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4620530504582027</v>
+        <v>0.6155646479252872</v>
       </c>
       <c r="N2" t="n">
-        <v>133.1508073536522</v>
+        <v>36.00336630976164</v>
       </c>
       <c r="O2" t="n">
-        <v>274.4859798968686</v>
+        <v>72.96794989798747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9501616483009316</v>
+        <v>0.847718723255569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7516123520725825</v>
+        <v>0.6003664935562059</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8117835741039693</v>
+        <v>0.7288037540613079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8658254289076781</v>
+        <v>0.7300982942879751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.20745346947351</v>
+        <v>0.3609359606116231</v>
       </c>
       <c r="G3" t="n">
-        <v>1.660969345410594</v>
+        <v>2.672351097732747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6732392420146829</v>
+        <v>0.970053246860868</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6806679442875706</v>
+        <v>0.5348062795915398</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6937310657071404</v>
+        <v>1.104777090904728</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4554706022055759</v>
+        <v>0.6007794608769703</v>
       </c>
       <c r="L3" t="n">
-        <v>4.189654508740375</v>
+        <v>0.7926382614543918</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4626438088867509</v>
+        <v>0.6102411368266516</v>
       </c>
       <c r="N3" t="n">
-        <v>133.1456964159177</v>
+        <v>36.03810946162629</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4808689591342</v>
+        <v>73.00269304985211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9506658369232918</v>
+        <v>0.8445364180559319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7513711903679245</v>
+        <v>0.5991685657588937</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8121644244755156</v>
+        <v>0.7187270792205097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8694064380779722</v>
+        <v>0.7679338728066396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2053547708726965</v>
+        <v>0.3684786369586175</v>
       </c>
       <c r="G4" t="n">
-        <v>1.66258199484009</v>
+        <v>2.680361646429324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6718769623186349</v>
+        <v>1.006096928487225</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6625014755552656</v>
+        <v>0.4598356345176988</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6981904647542153</v>
+        <v>1.133353398856368</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4531608664400497</v>
+        <v>0.6070244121603492</v>
       </c>
       <c r="L4" t="n">
-        <v>4.157386436909327</v>
+        <v>0.7883049096931839</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4602976970918062</v>
+        <v>0.6165844398500827</v>
       </c>
       <c r="N4" t="n">
-        <v>133.1660324119312</v>
+        <v>35.996745084017</v>
       </c>
       <c r="O4" t="n">
-        <v>274.5012049551476</v>
+        <v>72.96132867224283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_6</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9507361000905463</v>
+        <v>0.8472126139503176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7509905022837865</v>
+        <v>0.5990009869769184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8123174895697584</v>
+        <v>0.7271858732931364</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8711429816805083</v>
+        <v>0.736981552708011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2050622985631954</v>
+        <v>0.3621355371595134</v>
       </c>
       <c r="G5" t="n">
-        <v>1.665127657811628</v>
+        <v>2.681482246516022</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6713294573517528</v>
+        <v>0.9758403125585006</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6536919853927027</v>
+        <v>0.5211672037754936</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7028599552110683</v>
+        <v>1.107892569263823</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4528380489349315</v>
+        <v>0.6017769829093776</v>
       </c>
       <c r="L5" t="n">
-        <v>4.152889594205035</v>
+        <v>0.7919490913366026</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4599697955336816</v>
+        <v>0.6112543688339132</v>
       </c>
       <c r="N5" t="n">
-        <v>133.1688829011607</v>
+        <v>36.03147345037642</v>
       </c>
       <c r="O5" t="n">
-        <v>274.5040554443771</v>
+        <v>72.99605703860225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_5</t>
+          <t>model_1_7_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9505663447071917</v>
+        <v>0.8445941307457225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7505322530606131</v>
+        <v>0.5988161933280249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8122742304299495</v>
+        <v>0.7189339948522889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8719286062794471</v>
+        <v>0.7668416519302157</v>
       </c>
       <c r="F6" t="n">
-        <v>0.20576890987834</v>
+        <v>0.368341846766321</v>
       </c>
       <c r="G6" t="n">
-        <v>1.668191972477032</v>
+        <v>2.682717962497069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6714841927865398</v>
+        <v>1.005356803270009</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6497065097814299</v>
+        <v>0.4619998541986062</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7083224523755324</v>
+        <v>1.133567803277978</v>
       </c>
       <c r="K6" t="n">
-        <v>0.453617581094847</v>
+        <v>0.6069117289740914</v>
       </c>
       <c r="L6" t="n">
-        <v>4.163753938739731</v>
+        <v>0.7883834971856647</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4607616045458695</v>
+        <v>0.6164699820162832</v>
       </c>
       <c r="N6" t="n">
-        <v>133.1620030731691</v>
+        <v>35.99748768114556</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4971756163854</v>
+        <v>72.96207126937138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_4</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9507572345994157</v>
+        <v>0.8468236434713632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7502223272001647</v>
+        <v>0.5982964687821861</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8123909847236106</v>
+        <v>0.7255541784784455</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8742421449622033</v>
+        <v>0.7437979613698199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2049743256058023</v>
+        <v>0.3630574721240237</v>
       </c>
       <c r="G7" t="n">
-        <v>1.670264448132928</v>
+        <v>2.686193362928204</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6710665694479173</v>
+        <v>0.9816767902995485</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6379699220927102</v>
+        <v>0.507660589776962</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7125862910056172</v>
+        <v>1.108468812371731</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4527409033937649</v>
+        <v>0.6025425064873213</v>
       </c>
       <c r="L7" t="n">
-        <v>4.151536985637392</v>
+        <v>0.7914194294078137</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4598711200473515</v>
+        <v>0.6120319486429666</v>
       </c>
       <c r="N7" t="n">
-        <v>133.1697410972687</v>
+        <v>36.0263882636778</v>
       </c>
       <c r="O7" t="n">
-        <v>274.5049136404851</v>
+        <v>72.99097185190362</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9505244772393374</v>
+        <v>0.8445468595912573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7497607085212424</v>
+        <v>0.5982730257979905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8123808542040516</v>
+        <v>0.7190636785132671</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8748081374838843</v>
+        <v>0.7658349328649683</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2059431843310123</v>
+        <v>0.3684538885084896</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67335129436444</v>
+        <v>2.686350126271465</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6711028057289785</v>
+        <v>1.00489293233418</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6350986405743242</v>
+        <v>0.4639946532920707</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7180159539916557</v>
+        <v>1.135810063604942</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453809634462527</v>
+        <v>0.6070040267646415</v>
       </c>
       <c r="L8" t="n">
-        <v>4.166433456682405</v>
+        <v>0.7883191279540525</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4609566825621075</v>
+        <v>0.6165637334047706</v>
       </c>
       <c r="N8" t="n">
-        <v>133.1603099049038</v>
+        <v>35.99687941626199</v>
       </c>
       <c r="O8" t="n">
-        <v>274.4954824481202</v>
+        <v>72.96146300448781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_2</t>
+          <t>model_1_7_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.950351732148995</v>
+        <v>0.8444308871752864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7493777476539295</v>
+        <v>0.597526661754074</v>
       </c>
       <c r="D9" t="n">
-        <v>0.812281034508335</v>
+        <v>0.7191319929883409</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8757321933813986</v>
+        <v>0.764907948813637</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2066622403813093</v>
+        <v>0.3687287654747051</v>
       </c>
       <c r="G9" t="n">
-        <v>1.675912155447534</v>
+        <v>2.691341066069826</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6714598549926782</v>
+        <v>1.004648575417943</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6304109026292922</v>
+        <v>0.4658314586224605</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7236836575661101</v>
+        <v>1.137624719435601</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454601188275294</v>
+        <v>0.6072304055914074</v>
       </c>
       <c r="L9" t="n">
-        <v>4.177489142464317</v>
+        <v>0.788161208068475</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4617607025561621</v>
+        <v>0.6167936774717622</v>
       </c>
       <c r="N9" t="n">
-        <v>133.1533390147005</v>
+        <v>35.99538791627908</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4885115579169</v>
+        <v>72.95997150450489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_1</t>
+          <t>model_1_7_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9501953206136281</v>
+        <v>0.8452632655530549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.748949532934742</v>
+        <v>0.5970566224075382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.812131902605846</v>
+        <v>0.7213332789158358</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8766966898820086</v>
+        <v>0.7577638536723783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2073133075729667</v>
+        <v>0.3667558683740561</v>
       </c>
       <c r="G10" t="n">
-        <v>1.678775629246489</v>
+        <v>2.694484221344442</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6719932911607169</v>
+        <v>0.9967747032931852</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6255180094007309</v>
+        <v>0.4799873785840081</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7291647563173634</v>
+        <v>1.127125837108971</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4553167112823411</v>
+        <v>0.6056037222260577</v>
       </c>
       <c r="L10" t="n">
-        <v>4.187499480727801</v>
+        <v>0.7892946594765002</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4624874943353096</v>
+        <v>0.6151413754694951</v>
       </c>
       <c r="N10" t="n">
-        <v>133.1470481336891</v>
+        <v>36.00611772213428</v>
       </c>
       <c r="O10" t="n">
-        <v>274.4822206769055</v>
+        <v>72.9707013103601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_0</t>
+          <t>model_1_7_6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9502100848688354</v>
+        <v>0.8454222470458189</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7485767291564652</v>
+        <v>0.5957504388309398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8120260351250377</v>
+        <v>0.7230163983702859</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8783939592084313</v>
+        <v>0.7514563291791065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2072518509665076</v>
+        <v>0.3663790516107808</v>
       </c>
       <c r="G11" t="n">
-        <v>1.681268569828428</v>
+        <v>2.703218676935578</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6723719730010189</v>
+        <v>0.9907542825974903</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6169077577419154</v>
+        <v>0.4924856460506034</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7342010965041591</v>
+        <v>1.121891608939191</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4552492185237748</v>
+        <v>0.6052925339129673</v>
       </c>
       <c r="L11" t="n">
-        <v>4.186554568394534</v>
+        <v>0.7895111449134555</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4624189386332638</v>
+        <v>0.6148252862515478</v>
       </c>
       <c r="N11" t="n">
-        <v>133.1476411078515</v>
+        <v>36.00817364273599</v>
       </c>
       <c r="O11" t="n">
-        <v>274.4828136510679</v>
+        <v>72.9727572309618</v>
       </c>
     </row>
   </sheetData>
